--- a/xlsx/共和制_intext.xlsx
+++ b/xlsx/共和制_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
   <si>
     <t>共和制</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B_(%E9%9B%9C%E8%AA%8C)</t>
   </si>
   <si>
-    <t>共和國 (雜誌)</t>
+    <t>共和国 (杂志)</t>
   </si>
   <si>
     <t>政策_政策_政治_共和制</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>政體</t>
+    <t>政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0%E6%B0%91%E4%B8%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>代議民主制</t>
+    <t>代议民主制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>金權政治</t>
+    <t>金权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%8B%E9%98%80%E6%94%BF%E6%B2%BB</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E6%94%BF%E9%AB%94</t>
   </si>
   <si>
-    <t>威權政體</t>
+    <t>威权政体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>威權主義</t>
+    <t>威权主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6</t>
   </si>
   <si>
-    <t>專制</t>
+    <t>专制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%88%B6%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>專制主義</t>
+    <t>专制主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>軍事獨裁</t>
+    <t>军事独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%81%E6%9D%83%E4%B8%BB%E4%B9%89</t>
@@ -197,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>軍國主義</t>
+    <t>军国主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>無政府</t>
+    <t>无政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%B0%91%E4%B8%BB%E7%8B%80%E6%85%8B</t>
   </si>
   <si>
-    <t>半民主狀態</t>
+    <t>半民主状态</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E5%AE%98%E7%BB%9F%E6%B2%BB</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E6%AC%8A%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>神權政治</t>
+    <t>神权政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E4%BA%BA%E6%94%BF%E6%B2%BB</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>綠色政治</t>
+    <t>绿色政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Forms_of_government</t>
@@ -251,31 +251,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8F%A4%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>中古時期</t>
+    <t>中古时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬共和國</t>
+    <t>罗马共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%97%9D%E5%BE%A9%E8%88%88</t>
   </si>
   <si>
-    <t>文藝復興</t>
+    <t>文艺复兴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%92%92%E8%B7%AF%E6%96%AF%E6%8F%90%E4%B9%8C%E6%96%AF</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%88%A9%E6%AF%94%E7%83%8F%E6%96%AF</t>
   </si>
   <si>
-    <t>波利比烏斯</t>
+    <t>波利比乌斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
+    <t>西塞罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%BC%8F%E6%B0%91%E4%B8%BB</t>
@@ -335,9 +335,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A1%E9%A0%AD%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>寡頭政治</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%9D%83%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%AE%AA%E6%B3%95</t>
@@ -377,13 +374,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E4%B8%BB%E4%B9%89</t>
@@ -413,13 +410,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
   </si>
   <si>
-    <t>柏拉圖</t>
+    <t>柏拉图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
   </si>
   <si>
-    <t>亞里斯多德</t>
+    <t>亚里斯多德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%91%A8</t>
@@ -443,13 +440,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>大韓民國</t>
+    <t>大韩民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2</t>
   </si>
   <si>
-    <t>世襲</t>
+    <t>世袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%87%E5%B8%9D</t>
@@ -461,19 +458,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A</t>
   </si>
   <si>
-    <t>極權</t>
+    <t>极权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -491,7 +485,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8A%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>西亞</t>
+    <t>西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%A1%E5%BE%B7</t>
@@ -521,37 +515,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>中世紀</t>
+    <t>中世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%BC%E6%96%AF%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>威尼斯共和國</t>
+    <t>威尼斯共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%AC%8A</t>
   </si>
   <si>
-    <t>公民權</t>
+    <t>公民权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
   </si>
   <si>
-    <t>奴隸</t>
+    <t>奴隶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E4%BA%BA%E6%9A%B4%E6%94%BF</t>
   </si>
   <si>
-    <t>多數人暴政</t>
+    <t>多数人暴政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%A5%B3%E7%8E%8B</t>
   </si>
   <si>
-    <t>英國女王</t>
+    <t>英国女王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E5%85%B1%E5%92%8C%E8%BF%90%E5%8A%A8</t>
@@ -617,9 +611,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E6%80%BB%E7%9D%A3</t>
   </si>
   <si>
@@ -629,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%81%E5%95%9F%E8%B6%85</t>
   </si>
   <si>
-    <t>梁啟超</t>
+    <t>梁启超</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%9C%9D</t>
@@ -641,19 +632,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9C%8B%E6%B0%91%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國國民黨</t>
+    <t>中国国民党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%AA%E5%B1%AC</t>
   </si>
   <si>
-    <t>親屬</t>
+    <t>亲属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
+    <t>选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -671,19 +662,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>總統</t>
+    <t>总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會主義國家</t>
+    <t>社会主义国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>國家主席</t>
+    <t>国家主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB</t>
@@ -695,13 +686,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E8%81%AF%E9%82%A6%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞士聯邦委員會</t>
+    <t>瑞士联邦委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E5%88%A9%E8%AB%BE</t>
   </si>
   <si>
-    <t>聖馬利諾</t>
+    <t>圣马利诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA%E6%89%A7%E6%94%BF%E5%AE%98</t>
@@ -713,73 +704,73 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦共和制</t>
+    <t>联邦共和制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E7%A5%A8</t>
   </si>
   <si>
-    <t>選票</t>
+    <t>选票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>美國總統</t>
+    <t>美国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%93%E6%8E%A5%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>間接選舉</t>
+    <t>间接选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國會</t>
+    <t>美国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%AD%B0</t>
   </si>
   <si>
-    <t>代議</t>
+    <t>代议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%B0%91</t>
@@ -839,9 +830,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%9B%BD%E5%AE%B6</t>
   </si>
   <si>
-    <t>社会主义国家</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
@@ -851,13 +839,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>中國共產黨</t>
+    <t>中国共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%92%E8%BF%91%E5%B9%B3</t>
   </si>
   <si>
-    <t>習近平</t>
+    <t>习近平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A%E5%88%B6%E5%BA%A6</t>
@@ -869,7 +857,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>全國人民代表大會</t>
+    <t>全国人民代表大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -881,7 +869,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E8%A5%BF%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>美西戰爭</t>
+    <t>美西战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E9%9D%A9%E5%91%BD</t>
@@ -893,13 +881,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>古巴共產黨</t>
+    <t>古巴共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E7%88%BE%C2%B7%E5%8D%A1%E6%96%AF%E7%89%B9%E7%BE%85</t>
   </si>
   <si>
-    <t>勞爾·卡斯特羅</t>
+    <t>劳尔·卡斯特罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%94%BF%E6%9D%83%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A</t>
@@ -929,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
-    <t>社會主義共和制</t>
+    <t>社会主义共和制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D%E5%9B%BD%E4%BC%9A</t>
@@ -953,7 +941,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%85%B1%E7%94%A2%E9%BB%A8</t>
   </si>
   <si>
-    <t>越南共產黨</t>
+    <t>越南共产党</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%AE%E5%AF%8C%E4%BB%B2</t>
@@ -965,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>越南國會</t>
+    <t>越南国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -989,9 +977,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
   </si>
   <si>
-    <t>苏联</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%BB%B4%E5%9F%83</t>
   </si>
   <si>
@@ -1001,7 +986,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
@@ -1019,15 +1004,9 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3</t>
   </si>
   <si>
@@ -1037,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>共同體</t>
+    <t>共同体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -1055,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1073,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
 </sst>
 </file>
@@ -3010,7 +2989,7 @@
         <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3036,10 +3015,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3065,10 +3044,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3094,10 +3073,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3123,10 +3102,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3152,10 +3131,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3181,10 +3160,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3210,10 +3189,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3239,10 +3218,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3268,10 +3247,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3297,10 +3276,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>10</v>
@@ -3326,10 +3305,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -3355,10 +3334,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3384,10 +3363,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3413,10 +3392,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3442,10 +3421,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3471,10 +3450,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3500,10 +3479,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3529,10 +3508,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3558,10 +3537,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3587,10 +3566,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3616,10 +3595,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -3645,10 +3624,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3674,10 +3653,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -3703,10 +3682,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>4</v>
@@ -3732,10 +3711,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3761,10 +3740,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3790,10 +3769,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3819,10 +3798,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3848,10 +3827,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3877,10 +3856,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3906,10 +3885,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3935,10 +3914,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3964,10 +3943,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>6</v>
@@ -3993,10 +3972,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4022,10 +4001,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4051,10 +4030,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4080,10 +4059,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4109,10 +4088,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4138,10 +4117,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4167,10 +4146,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4196,10 +4175,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4225,10 +4204,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4254,10 +4233,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4283,10 +4262,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4312,10 +4291,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4341,10 +4320,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4370,10 +4349,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4399,10 +4378,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="G103" t="n">
         <v>3</v>
@@ -4428,10 +4407,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4457,10 +4436,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4486,10 +4465,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4515,10 +4494,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4544,10 +4523,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4573,10 +4552,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G109" t="n">
         <v>6</v>
@@ -4602,10 +4581,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4631,10 +4610,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4660,10 +4639,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -4689,10 +4668,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4718,10 +4697,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4747,10 +4726,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4776,10 +4755,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4805,10 +4784,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4834,10 +4813,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4863,10 +4842,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>7</v>
@@ -4892,10 +4871,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4921,10 +4900,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4950,10 +4929,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4979,10 +4958,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5008,10 +4987,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5037,10 +5016,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5066,10 +5045,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5095,10 +5074,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5124,10 +5103,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5153,10 +5132,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5182,10 +5161,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5211,10 +5190,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5240,10 +5219,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F132" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5269,10 +5248,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>3</v>
@@ -5298,10 +5277,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5327,10 +5306,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5356,10 +5335,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5385,10 +5364,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5414,10 +5393,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -5443,10 +5422,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5472,10 +5451,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5501,10 +5480,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -5530,10 +5509,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F142" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G142" t="n">
         <v>3</v>
@@ -5559,10 +5538,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5588,10 +5567,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5617,10 +5596,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5646,10 +5625,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5675,10 +5654,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5704,10 +5683,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5733,10 +5712,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5762,10 +5741,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5791,10 +5770,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5820,10 +5799,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5849,10 +5828,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5878,10 +5857,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5907,10 +5886,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5936,10 +5915,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5965,10 +5944,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -5994,10 +5973,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6023,10 +6002,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6052,10 +6031,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6081,10 +6060,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6110,10 +6089,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6139,10 +6118,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6168,10 +6147,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F164" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6197,10 +6176,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F165" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6226,10 +6205,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F166" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6255,10 +6234,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F167" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
       <c r="G167" t="n">
         <v>3</v>
@@ -6284,10 +6263,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6313,10 +6292,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F169" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6342,10 +6321,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F170" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6371,10 +6350,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6400,10 +6379,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F172" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6429,10 +6408,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6458,10 +6437,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6487,10 +6466,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>14</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6516,10 +6495,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>16</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6545,10 +6524,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6574,10 +6553,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6603,10 +6582,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6632,10 +6611,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6661,10 +6640,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -6690,10 +6669,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6719,10 +6698,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6748,10 +6727,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
